--- a/openpy_fx_tools_dss/IMEX_to_DSS/xlsx_DSS_xlsx/Examples/13NodeIEEE/xlsx_files/BBDD_DSS_13nodeIEEE.xlsx
+++ b/openpy_fx_tools_dss/IMEX_to_DSS/xlsx_DSS_xlsx/Examples/13NodeIEEE/xlsx_files/BBDD_DSS_13nodeIEEE.xlsx
@@ -399,9 +399,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
+          <a:path_save path_save="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          </a:path_save>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -418,9 +418,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
+          <a:path_save path_save="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          </a:path_save>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -4054,43 +4054,25 @@
         <v>9</v>
       </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>120</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3</v>
-      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
-        <v>16</v>
-      </c>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
         <v>2</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>60</v>
-      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
         <v>20</v>
       </c>
@@ -4101,14 +4083,8 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -4144,43 +4120,25 @@
         <v>9</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>15</v>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>120</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
-        <v>16</v>
-      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
         <v>2</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>60</v>
-      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
         <v>20</v>
       </c>
@@ -4191,14 +4149,8 @@
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -4234,43 +4186,25 @@
         <v>9</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>15</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>120</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
-        <v>16</v>
-      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>60</v>
-      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="n">
         <v>20</v>
       </c>
@@ -4281,14 +4215,8 @@
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
     </row>
   </sheetData>
@@ -4435,7 +4363,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>675.1.2.3.0.0.0</t>
+          <t>675.0.0.0</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -4456,7 +4384,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0 |1.87639338887875E-310 2.25607960651843E-308 |1.10840381031221E-305 0 1.10839073778976E-305]</t>
+          <t>[0 |1.87639338887875E-310 2.25607960651843E-308 |9.30480103284491E-306 0 9.30468658158944E-306]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4467,37 +4395,19 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[1.0]</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
         <v>112.416759145095</v>
       </c>
       <c r="P2" t="n">
         <v>149.889012193461</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="R2" t="n">
-        <v>100</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>60</v>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -4541,37 +4451,19 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[1.0]</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
         <v>56.25</v>
       </c>
       <c r="P3" t="n">
         <v>75</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="R3" t="n">
-        <v>100</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>60</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
     </row>
   </sheetData>
@@ -7001,7 +6893,11 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -7064,7 +6960,11 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -7127,7 +7027,11 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -7190,7 +7094,11 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -7253,7 +7161,11 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -7309,7 +7221,9 @@
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -7448,7 +7362,11 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -7511,7 +7429,11 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -7574,7 +7496,11 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -7637,7 +7563,11 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -7693,12 +7623,18 @@
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -7761,7 +7697,11 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -7824,7 +7764,11 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -7887,7 +7831,11 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>

--- a/openpy_fx_tools_dss/IMEX_to_DSS/xlsx_DSS_xlsx/Examples/13NodeIEEE/xlsx_files/BBDD_DSS_13nodeIEEE.xlsx
+++ b/openpy_fx_tools_dss/IMEX_to_DSS/xlsx_DSS_xlsx/Examples/13NodeIEEE/xlsx_files/BBDD_DSS_13nodeIEEE.xlsx
@@ -4384,7 +4384,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0 |1.87639338887875E-310 2.25607960651843E-308 |9.30480103284491E-306 0 9.30468658158944E-306]</t>
+          <t>[0 |1.87639338887875E-310 2.25607960651843E-308 |8.13147572528805E-306 0 8.13146990539237E-306]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
